--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_6_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>709348.2793971528</v>
+        <v>775055.3319635334</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11773978.35958493</v>
+        <v>11773978.35958494</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7727241.929383188</v>
+        <v>7727241.929383187</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>50.05769526855297</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>29.05241763862477</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>40.47627913313517</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>197.0267637357615</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>132.8134787792463</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1138,10 +1138,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>241.0142888776591</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>208.2638363878125</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1220,22 +1220,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1262,16 +1262,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>55.66595177720879</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>241.0142888776591</v>
@@ -1280,7 +1280,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>114.6601591135565</v>
       </c>
     </row>
     <row r="10">
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>139.5108042033318</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.42041023393327</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>236.2382071365445</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1448,28 +1448,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.7895772424515</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S12" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
-        <v>197.9863995095175</v>
+        <v>132.9332591811868</v>
       </c>
       <c r="U12" t="n">
-        <v>158.5650473908252</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>34.89896514109012</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1988625129318</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>141.8250664795777</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1587,10 +1587,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>261.6291295613255</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>151.230117485346</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379247</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.64342851727527</v>
+        <v>87.2469341093462</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207134</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>161.6448423772186</v>
@@ -1770,13 +1770,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.87345846881805</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.196604800554872</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1846,25 +1846,25 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>186.0019622371406</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>119.0206722422758</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379247</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1928,7 +1928,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>84.73444600795314</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1976,7 +1976,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>197.9863995095175</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>225.9058271976456</v>
@@ -1988,7 +1988,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>133.4561049772507</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U19" t="n">
-        <v>193.8209438199399</v>
+        <v>254.3342481243828</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>146.3629047853694</v>
+        <v>87.22181634661686</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.42041023393325</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2171,10 +2171,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207134</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>161.6448423772186</v>
@@ -2222,13 +2222,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>29.61562847564212</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>126.3964462367832</v>
       </c>
     </row>
     <row r="22">
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>167.537897457236</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2292,16 +2292,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>167.3849966763636</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>193.8209438199398</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,28 +2365,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>13.16208281464234</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>328.028790888068</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S24" t="n">
         <v>156.5912426325231</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>37.83808333974883</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2560,19 +2560,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>327.9428964074127</v>
+        <v>321.8585111731811</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2614,13 +2614,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
       </c>
       <c r="I27" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2712,22 +2712,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>94.59270453218362</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,19 +2794,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>413.784170020795</v>
+        <v>280.2285839375439</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>275.4805812731078</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>190.2713935802968</v>
       </c>
       <c r="X31" t="n">
-        <v>123.6064608052457</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3049,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>36.10875537600893</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>59.03226091544995</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3128,7 +3128,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I33" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S33" t="n">
         <v>156.5912426325231</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
-        <v>77.3904209054608</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>94.63926978364032</v>
       </c>
     </row>
     <row r="35">
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>413.784170020795</v>
+        <v>159.7365432862657</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>124.0800308968877</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>216.4483203576578</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.80276983270106</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>223.1498336210771</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,25 +3505,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>355.5467565582655</v>
       </c>
       <c r="H38" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,28 +3550,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>29.9432453752187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,10 +3669,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3720,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>228.9239397125508</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.1315052252499</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>262.1184280996887</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3787,16 +3787,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S42" t="n">
         <v>156.5912426325231</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>56.49576810820432</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,28 +4024,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
-        <v>94.24093308790029</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>353.5759586385877</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
-        <v>156.5912426325221</v>
+        <v>156.5912426325231</v>
       </c>
       <c r="T45" t="n">
         <v>196.8897623984489</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>94.65568569260671</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4191,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>94.63926978364034</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>19.28114311021272</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D2" t="n">
-        <v>19.28114311021272</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F2" t="n">
-        <v>19.28114311021272</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="G2" t="n">
         <v>19.28114311021272</v>
@@ -4363,19 +4363,19 @@
         <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
         <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>262.7299197543128</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4385,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
         <v>473.4149733950735</v>
@@ -4442,19 +4442,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>913.4938269565423</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>678.3417187247995</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W3" t="n">
-        <v>434.8929420806995</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X3" t="n">
-        <v>227.0414418751666</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="4">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>518.2486856454962</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>518.2486856454962</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4655,43 +4655,43 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>435.6470747334852</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>435.6470747334852</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>366.5263999453368</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>158.7661011803829</v>
       </c>
     </row>
     <row r="7">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E8" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4831,25 +4831,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U8" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V8" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W8" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="C9" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="D9" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
       <c r="E9" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F9" t="n">
-        <v>19.28114311021272</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G9" t="n">
-        <v>19.28114311021272</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>613.2059550252818</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>712.019119383956</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>761.8705608694022</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U9" t="n">
-        <v>705.6423267510095</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V9" t="n">
-        <v>470.4902185192667</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W9" t="n">
-        <v>227.0414418751666</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X9" t="n">
-        <v>227.0414418751666</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="Y9" t="n">
-        <v>19.28114311021272</v>
+        <v>431.3726917782591</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -5001,13 +5001,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1430.707385206223</v>
+        <v>1756.625180529937</v>
       </c>
       <c r="C11" t="n">
-        <v>1430.707385206223</v>
+        <v>1756.625180529937</v>
       </c>
       <c r="D11" t="n">
-        <v>1430.707385206223</v>
+        <v>1398.359481923187</v>
       </c>
       <c r="E11" t="n">
-        <v>1044.919132607979</v>
+        <v>1012.571229324943</v>
       </c>
       <c r="F11" t="n">
-        <v>633.9332278183715</v>
+        <v>601.5853245353351</v>
       </c>
       <c r="G11" t="n">
-        <v>215.4557842448272</v>
+        <v>183.1078809617908</v>
       </c>
       <c r="H11" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K11" t="n">
         <v>345.4437346953285</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803415</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M11" t="n">
-        <v>1075.883192613822</v>
+        <v>1075.883192613821</v>
       </c>
       <c r="N11" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O11" t="n">
         <v>1777.842707170708</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755288</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R11" t="n">
-        <v>2022.100492129413</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S11" t="n">
-        <v>2022.100492129413</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T11" t="n">
-        <v>2022.100492129413</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U11" t="n">
-        <v>1783.476040476337</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V11" t="n">
-        <v>1783.476040476337</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W11" t="n">
-        <v>1430.707385206223</v>
+        <v>1756.625180529937</v>
       </c>
       <c r="X11" t="n">
-        <v>1430.707385206223</v>
+        <v>1756.625180529937</v>
       </c>
       <c r="Y11" t="n">
-        <v>1430.707385206223</v>
+        <v>1756.625180529937</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>680.9619766397616</v>
+        <v>671.3473286369498</v>
       </c>
       <c r="C12" t="n">
-        <v>506.5089473586346</v>
+        <v>496.8942993558228</v>
       </c>
       <c r="D12" t="n">
-        <v>506.5089473586346</v>
+        <v>347.9598896945715</v>
       </c>
       <c r="E12" t="n">
-        <v>506.5089473586346</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F12" t="n">
-        <v>359.9743893855196</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G12" t="n">
-        <v>221.7894571263213</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H12" t="n">
-        <v>113.6925001932248</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J12" t="n">
-        <v>91.9973422614717</v>
+        <v>91.99734226147166</v>
       </c>
       <c r="K12" t="n">
-        <v>91.9973422614717</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L12" t="n">
-        <v>438.1299850779131</v>
+        <v>649.8831383448791</v>
       </c>
       <c r="M12" t="n">
-        <v>894.0296748629687</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N12" t="n">
-        <v>1377.702686252226</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O12" t="n">
-        <v>1753.753320229597</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P12" t="n">
-        <v>2038.564039528556</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.393835800052</v>
+        <v>2042.117567525232</v>
       </c>
       <c r="S12" t="n">
-        <v>1946.116217237205</v>
+        <v>1878.839948962385</v>
       </c>
       <c r="T12" t="n">
-        <v>1746.12995510638</v>
+        <v>1744.563929587449</v>
       </c>
       <c r="U12" t="n">
-        <v>1585.963240570193</v>
+        <v>1744.563929587449</v>
       </c>
       <c r="V12" t="n">
-        <v>1350.81113233845</v>
+        <v>1509.411821355706</v>
       </c>
       <c r="W12" t="n">
-        <v>1096.573775610248</v>
+        <v>1255.174464627504</v>
       </c>
       <c r="X12" t="n">
-        <v>888.7222754047154</v>
+        <v>1047.322964421972</v>
       </c>
       <c r="Y12" t="n">
-        <v>680.9619766397616</v>
+        <v>839.5626656570178</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E13" t="n">
-        <v>492.132297943719</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G13" t="n">
-        <v>345.2423504458087</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H13" t="n">
-        <v>185.4455196246654</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701805</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L13" t="n">
         <v>166.2559978081031</v>
@@ -5211,40 +5211,40 @@
         <v>275.7564570053806</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O13" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842141</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y13" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="14">
@@ -5254,43 +5254,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1700.628773496708</v>
+        <v>1468.991119536283</v>
       </c>
       <c r="C14" t="n">
-        <v>1331.666256556296</v>
+        <v>1204.71927149454</v>
       </c>
       <c r="D14" t="n">
-        <v>1331.666256556296</v>
+        <v>846.4535728877895</v>
       </c>
       <c r="E14" t="n">
-        <v>945.8780039580517</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="F14" t="n">
-        <v>793.1203095284093</v>
+        <v>460.6653202895453</v>
       </c>
       <c r="G14" t="n">
-        <v>374.642865954865</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953286</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L14" t="n">
-        <v>683.3219880803413</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O14" t="n">
         <v>1777.842707170708</v>
@@ -5299,31 +5299,31 @@
         <v>2011.299366755287</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R14" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S14" t="n">
-        <v>1921.511879802148</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T14" t="n">
-        <v>1700.628773496708</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U14" t="n">
-        <v>1700.628773496708</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="V14" t="n">
-        <v>1700.628773496708</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="W14" t="n">
-        <v>1700.628773496708</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="X14" t="n">
-        <v>1700.628773496708</v>
+        <v>1855.590959600405</v>
       </c>
       <c r="Y14" t="n">
-        <v>1700.628773496708</v>
+        <v>1855.590959600405</v>
       </c>
     </row>
     <row r="15">
@@ -5342,67 +5342,67 @@
         <v>201.4253317214565</v>
       </c>
       <c r="E15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J15" t="n">
-        <v>91.99734226147169</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K15" t="n">
-        <v>303.7504955284377</v>
+        <v>253.941029982967</v>
       </c>
       <c r="L15" t="n">
-        <v>649.8831383448792</v>
+        <v>600.0736727994084</v>
       </c>
       <c r="M15" t="n">
-        <v>1105.782828129935</v>
+        <v>1055.973362584464</v>
       </c>
       <c r="N15" t="n">
-        <v>1589.455839519193</v>
+        <v>1539.646373973721</v>
       </c>
       <c r="O15" t="n">
-        <v>1965.506473496563</v>
+        <v>1915.697007951092</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R15" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S15" t="n">
-        <v>1878.839948962385</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T15" t="n">
-        <v>1678.85368683156</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U15" t="n">
-        <v>1450.665982591514</v>
+        <v>1517.942250866333</v>
       </c>
       <c r="V15" t="n">
-        <v>1215.513874359771</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W15" t="n">
-        <v>961.2765176315693</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X15" t="n">
-        <v>753.4250174260364</v>
+        <v>820.7012857008556</v>
       </c>
       <c r="Y15" t="n">
-        <v>545.6647186610826</v>
+        <v>612.9409869359017</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D16" t="n">
-        <v>377.2671384718783</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E16" t="n">
-        <v>229.3540448894852</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F16" t="n">
-        <v>82.46409739157482</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G16" t="n">
-        <v>82.46409739157482</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H16" t="n">
-        <v>82.46409739157482</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600104</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701805</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081032</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053807</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O16" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842141</v>
+        <v>299.0911576497211</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842141</v>
+        <v>296.8723649218879</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3837778842141</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1094.057242026947</v>
+        <v>1735.928077538972</v>
       </c>
       <c r="C17" t="n">
-        <v>906.1764720904416</v>
+        <v>1735.928077538972</v>
       </c>
       <c r="D17" t="n">
-        <v>547.9107734836912</v>
+        <v>1377.662378932221</v>
       </c>
       <c r="E17" t="n">
-        <v>547.9107734836912</v>
+        <v>991.8741263339768</v>
       </c>
       <c r="F17" t="n">
-        <v>547.9107734836912</v>
+        <v>580.8882215443693</v>
       </c>
       <c r="G17" t="n">
-        <v>547.9107734836912</v>
+        <v>162.4107779708251</v>
       </c>
       <c r="H17" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856227</v>
+        <v>115.2290882856226</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953285</v>
+        <v>345.4437346953284</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803413</v>
+        <v>683.3219880803409</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O17" t="n">
         <v>1777.842707170708</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755288</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R17" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S17" t="n">
-        <v>1921.511879802149</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T17" t="n">
-        <v>1700.628773496708</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U17" t="n">
-        <v>1446.825897297061</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="V17" t="n">
-        <v>1446.825897297061</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="W17" t="n">
-        <v>1094.057242026947</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="X17" t="n">
-        <v>1094.057242026947</v>
+        <v>1735.928077538972</v>
       </c>
       <c r="Y17" t="n">
-        <v>1094.057242026947</v>
+        <v>1735.928077538972</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>608.0032684786815</v>
+        <v>881.0368843733719</v>
       </c>
       <c r="C18" t="n">
-        <v>433.5502391975546</v>
+        <v>706.5838550922449</v>
       </c>
       <c r="D18" t="n">
-        <v>433.5502391975546</v>
+        <v>557.6494454309936</v>
       </c>
       <c r="E18" t="n">
-        <v>274.3127841920991</v>
+        <v>398.4119904255381</v>
       </c>
       <c r="F18" t="n">
-        <v>127.778226218984</v>
+        <v>251.8774324524231</v>
       </c>
       <c r="G18" t="n">
-        <v>127.778226218984</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600105</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J18" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K18" t="n">
-        <v>253.9410299829671</v>
+        <v>162.8271385329676</v>
       </c>
       <c r="L18" t="n">
-        <v>600.0736727994085</v>
+        <v>508.959781349409</v>
       </c>
       <c r="M18" t="n">
-        <v>1055.973362584464</v>
+        <v>964.8594711344645</v>
       </c>
       <c r="N18" t="n">
-        <v>1448.532482523723</v>
+        <v>1448.532482523722</v>
       </c>
       <c r="O18" t="n">
-        <v>1824.583116501093</v>
+        <v>1824.583116501092</v>
       </c>
       <c r="P18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S18" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="T18" t="n">
-        <v>1909.407573669227</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="U18" t="n">
-        <v>1681.219869429181</v>
+        <v>1881.206131560005</v>
       </c>
       <c r="V18" t="n">
-        <v>1446.067761197438</v>
+        <v>1646.054023328263</v>
       </c>
       <c r="W18" t="n">
-        <v>1191.830404469236</v>
+        <v>1391.816666600061</v>
       </c>
       <c r="X18" t="n">
-        <v>983.9789042637035</v>
+        <v>1257.012520158394</v>
       </c>
       <c r="Y18" t="n">
-        <v>776.2186054987496</v>
+        <v>1049.25222139344</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701806</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081032</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053807</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O19" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842141</v>
+        <v>299.0911576497211</v>
       </c>
       <c r="U19" t="n">
-        <v>331.6050467529616</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="V19" t="n">
-        <v>331.6050467529616</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="W19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y19" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1635.500652065291</v>
+        <v>1058.309398578046</v>
       </c>
       <c r="C20" t="n">
-        <v>1266.538135124879</v>
+        <v>689.3468816376339</v>
       </c>
       <c r="D20" t="n">
-        <v>908.2724365181289</v>
+        <v>689.3468816376339</v>
       </c>
       <c r="E20" t="n">
-        <v>522.4841839198846</v>
+        <v>303.5586290393897</v>
       </c>
       <c r="F20" t="n">
-        <v>374.642865954865</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="G20" t="n">
-        <v>374.642865954865</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H20" t="n">
-        <v>42.18787671600105</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856228</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953287</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803413</v>
+        <v>683.321988080341</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300944</v>
+        <v>1460.164450300943</v>
       </c>
       <c r="O20" t="n">
         <v>1777.842707170708</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755288</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129413</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="S20" t="n">
-        <v>2022.100492129413</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="T20" t="n">
-        <v>2022.100492129413</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="U20" t="n">
-        <v>2022.100492129413</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="V20" t="n">
-        <v>2022.100492129413</v>
+        <v>1801.217385823971</v>
       </c>
       <c r="W20" t="n">
-        <v>2022.100492129413</v>
+        <v>1448.448730553857</v>
       </c>
       <c r="X20" t="n">
-        <v>2022.100492129413</v>
+        <v>1448.448730553857</v>
       </c>
       <c r="Y20" t="n">
-        <v>2022.100492129413</v>
+        <v>1058.309398578046</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>809.5322608961482</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C21" t="n">
-        <v>635.0792316150212</v>
+        <v>350.3597413827078</v>
       </c>
       <c r="D21" t="n">
-        <v>486.1448219537699</v>
+        <v>201.4253317214565</v>
       </c>
       <c r="E21" t="n">
-        <v>326.9073669483144</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F21" t="n">
-        <v>180.3728089751994</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600105</v>
+        <v>91.99734226147166</v>
       </c>
       <c r="K21" t="n">
-        <v>253.9410299829671</v>
+        <v>303.7504955284377</v>
       </c>
       <c r="L21" t="n">
-        <v>600.0736727994085</v>
+        <v>649.8831383448791</v>
       </c>
       <c r="M21" t="n">
-        <v>1055.973362584464</v>
+        <v>1105.782828129934</v>
       </c>
       <c r="N21" t="n">
-        <v>1539.646373973722</v>
+        <v>1310.841828599075</v>
       </c>
       <c r="O21" t="n">
-        <v>1915.697007951092</v>
+        <v>1686.892462576445</v>
       </c>
       <c r="P21" t="n">
-        <v>2109.393835800052</v>
+        <v>1971.703181875404</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800052</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="R21" t="n">
-        <v>2042.117567525233</v>
+        <v>2109.393835800051</v>
       </c>
       <c r="S21" t="n">
-        <v>1878.839948962386</v>
+        <v>1946.116217237204</v>
       </c>
       <c r="T21" t="n">
-        <v>1678.85368683156</v>
+        <v>1746.129955106379</v>
       </c>
       <c r="U21" t="n">
-        <v>1450.665982591514</v>
+        <v>1517.942250866333</v>
       </c>
       <c r="V21" t="n">
-        <v>1215.513874359771</v>
+        <v>1282.79014263459</v>
       </c>
       <c r="W21" t="n">
-        <v>1185.599098121749</v>
+        <v>1028.552785906388</v>
       </c>
       <c r="X21" t="n">
-        <v>977.7475979162161</v>
+        <v>820.7012857008556</v>
       </c>
       <c r="Y21" t="n">
-        <v>977.7475979162161</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>358.308023665665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="C22" t="n">
-        <v>358.308023665665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="D22" t="n">
-        <v>358.308023665665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="E22" t="n">
-        <v>358.308023665665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="F22" t="n">
-        <v>211.4180761677546</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600105</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701806</v>
+        <v>72.25456008701801</v>
       </c>
       <c r="L22" t="n">
-        <v>166.2559978081032</v>
+        <v>166.2559978081031</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053807</v>
+        <v>275.7564570053806</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503604</v>
+        <v>388.0878564503603</v>
       </c>
       <c r="O22" t="n">
-        <v>475.827789687162</v>
+        <v>475.8277896871618</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842141</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="T22" t="n">
-        <v>358.308023665665</v>
+        <v>527.3837778842139</v>
       </c>
       <c r="U22" t="n">
-        <v>358.308023665665</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V22" t="n">
-        <v>358.308023665665</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W22" t="n">
-        <v>358.308023665665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="X22" t="n">
-        <v>358.308023665665</v>
+        <v>42.18787671600103</v>
       </c>
       <c r="Y22" t="n">
-        <v>358.308023665665</v>
+        <v>42.18787671600103</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C23" t="n">
-        <v>1422.14692331494</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D23" t="n">
-        <v>1422.14692331494</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E23" t="n">
-        <v>1036.358670716696</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F23" t="n">
-        <v>625.3727659270879</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H23" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I23" t="n">
         <v>53.94298182036444</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6016,25 +6016,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T23" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U23" t="n">
-        <v>2212.181128500977</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V23" t="n">
-        <v>2198.886095354873</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W23" t="n">
-        <v>2198.886095354873</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X23" t="n">
-        <v>2198.886095354873</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="Y23" t="n">
-        <v>1808.746763379062</v>
+        <v>1626.94664591678</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J24" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K24" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L24" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M24" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N24" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O24" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P24" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q24" t="n">
         <v>2697.149091018222</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>689.9086980046677</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C25" t="n">
-        <v>520.9725150767608</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D25" t="n">
-        <v>370.8558756644251</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F25" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G25" t="n">
         <v>53.94298182036444</v>
@@ -6174,25 +6174,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S25" t="n">
-        <v>689.9086980046677</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T25" t="n">
-        <v>689.9086980046677</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U25" t="n">
-        <v>689.9086980046677</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V25" t="n">
-        <v>689.9086980046677</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W25" t="n">
-        <v>689.9086980046677</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="X25" t="n">
-        <v>689.9086980046677</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="Y25" t="n">
-        <v>689.9086980046677</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1112.426648284105</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="C26" t="n">
-        <v>743.4641313436935</v>
+        <v>1503.021466417851</v>
       </c>
       <c r="D26" t="n">
-        <v>385.1984327369429</v>
+        <v>1503.021466417851</v>
       </c>
       <c r="E26" t="n">
-        <v>385.1984327369429</v>
+        <v>1117.233213819607</v>
       </c>
       <c r="F26" t="n">
-        <v>385.1984327369429</v>
+        <v>706.2473090299991</v>
       </c>
       <c r="G26" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6226,19 +6226,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J26" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K26" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L26" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M26" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N26" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O26" t="n">
         <v>2238.843319642689</v>
@@ -6250,28 +6250,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S26" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T26" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U26" t="n">
-        <v>2169.72394915887</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V26" t="n">
-        <v>1838.661061815299</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W26" t="n">
-        <v>1485.892406545185</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X26" t="n">
-        <v>1112.426648284105</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="Y26" t="n">
-        <v>1112.426648284105</v>
+        <v>1871.983983358263</v>
       </c>
     </row>
     <row r="27">
@@ -6287,16 +6287,16 @@
         <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
         <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H27" t="n">
         <v>115.9856282673424</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>667.7988452409105</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C28" t="n">
-        <v>498.8626623130036</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D28" t="n">
-        <v>348.7460229006679</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E28" t="n">
-        <v>200.8329293182748</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F28" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G28" t="n">
         <v>53.94298182036445</v>
@@ -6414,22 +6414,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="V28" t="n">
-        <v>728.1289842064342</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="W28" t="n">
-        <v>667.7988452409105</v>
+        <v>632.5807978102891</v>
       </c>
       <c r="X28" t="n">
-        <v>667.7988452409105</v>
+        <v>404.5912469122717</v>
       </c>
       <c r="Y28" t="n">
-        <v>667.7988452409105</v>
+        <v>404.5912469122717</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1268.68094731003</v>
+        <v>1116.950579244872</v>
       </c>
       <c r="C29" t="n">
-        <v>1268.68094731003</v>
+        <v>747.9880623044608</v>
       </c>
       <c r="D29" t="n">
-        <v>1268.68094731003</v>
+        <v>747.9880623044608</v>
       </c>
       <c r="E29" t="n">
-        <v>882.8926947117852</v>
+        <v>747.9880623044608</v>
       </c>
       <c r="F29" t="n">
-        <v>471.9067899221776</v>
+        <v>337.0021575148532</v>
       </c>
       <c r="G29" t="n">
         <v>53.94298182036445</v>
@@ -6463,10 +6463,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L29" t="n">
         <v>881.2824271224076</v>
@@ -6493,22 +6493,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U29" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V29" t="n">
-        <v>2697.149091018222</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="W29" t="n">
-        <v>2418.885877611043</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="X29" t="n">
-        <v>2045.420119349963</v>
+        <v>1893.689751284806</v>
       </c>
       <c r="Y29" t="n">
-        <v>1655.280787374151</v>
+        <v>1503.550419308994</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J30" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K30" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L30" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M30" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O30" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P30" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>246.1363086691491</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>603.2739732920446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>382.4813941485145</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,43 +6676,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1663.420136195577</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="C32" t="n">
-        <v>1663.420136195577</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D32" t="n">
-        <v>1305.154437588826</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E32" t="n">
-        <v>919.366184990582</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F32" t="n">
-        <v>508.3802802009745</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G32" t="n">
-        <v>90.41647209916135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H32" t="n">
-        <v>90.41647209916135</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I32" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J32" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K32" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V32" t="n">
-        <v>2423.485734520778</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="W32" t="n">
-        <v>2423.485734520778</v>
+        <v>2418.885877611043</v>
       </c>
       <c r="X32" t="n">
-        <v>2050.019976259699</v>
+        <v>2045.420119349963</v>
       </c>
       <c r="Y32" t="n">
-        <v>2050.019976259699</v>
+        <v>1655.280787374151</v>
       </c>
     </row>
     <row r="33">
@@ -6755,67 +6755,67 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C33" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D33" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E33" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F33" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J33" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K33" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L33" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M33" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O33" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P33" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q33" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R33" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S33" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T33" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U33" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V33" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W33" t="n">
         <v>1572.325111207638</v>
@@ -6834,13 +6834,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C34" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D34" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E34" t="n">
         <v>53.94298182036445</v>
@@ -6888,22 +6888,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V34" t="n">
-        <v>422.6486545462877</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W34" t="n">
-        <v>422.6486545462877</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X34" t="n">
-        <v>422.6486545462877</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1626.94664591678</v>
+        <v>1328.309493689271</v>
       </c>
       <c r="C35" t="n">
-        <v>1626.94664591678</v>
+        <v>959.3469767488598</v>
       </c>
       <c r="D35" t="n">
-        <v>1268.680947310029</v>
+        <v>601.0812781421093</v>
       </c>
       <c r="E35" t="n">
-        <v>882.8926947117851</v>
+        <v>215.2930255438651</v>
       </c>
       <c r="F35" t="n">
-        <v>471.9067899221776</v>
+        <v>215.2930255438651</v>
       </c>
       <c r="G35" t="n">
         <v>53.94298182036444</v>
@@ -6943,7 +6943,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
@@ -6964,25 +6964,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2571.815726475911</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T35" t="n">
-        <v>2353.181059447974</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U35" t="n">
-        <v>2353.181059447974</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V35" t="n">
-        <v>2353.181059447974</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W35" t="n">
-        <v>2000.41240417786</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="X35" t="n">
-        <v>1626.94664591678</v>
+        <v>2105.048665729205</v>
       </c>
       <c r="Y35" t="n">
-        <v>1626.94664591678</v>
+        <v>1714.909333753393</v>
       </c>
     </row>
     <row r="36">
@@ -7028,13 +7028,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C37" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D37" t="n">
-        <v>506.4943954681378</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E37" t="n">
-        <v>358.5813018857447</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G37" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H37" t="n">
         <v>53.94298182036444</v>
@@ -7122,25 +7122,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S37" t="n">
-        <v>656.6110348804735</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T37" t="n">
-        <v>656.6110348804735</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="U37" t="n">
-        <v>656.6110348804735</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="V37" t="n">
-        <v>656.6110348804735</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="W37" t="n">
-        <v>656.6110348804735</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X37" t="n">
-        <v>656.6110348804735</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y37" t="n">
-        <v>656.6110348804735</v>
+        <v>53.94298182036444</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>892.8693763960225</v>
+        <v>1937.08349269302</v>
       </c>
       <c r="C38" t="n">
-        <v>892.8693763960225</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D38" t="n">
-        <v>534.603677789272</v>
+        <v>1209.855277145858</v>
       </c>
       <c r="E38" t="n">
-        <v>534.603677789272</v>
+        <v>824.067024547614</v>
       </c>
       <c r="F38" t="n">
-        <v>534.603677789272</v>
+        <v>413.0811197580064</v>
       </c>
       <c r="G38" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H38" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I38" t="n">
         <v>53.94298182036444</v>
@@ -7177,10 +7177,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
@@ -7198,28 +7198,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R38" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2465.942913862885</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T38" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U38" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V38" t="n">
-        <v>1662.483574129469</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W38" t="n">
-        <v>1309.714918859355</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X38" t="n">
-        <v>1309.714918859355</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y38" t="n">
-        <v>1279.469216460144</v>
+        <v>2323.683332757142</v>
       </c>
     </row>
     <row r="39">
@@ -7235,43 +7235,43 @@
         <v>814.0449459359555</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F39" t="n">
         <v>359.3385232961338</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J39" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K39" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L39" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M39" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O39" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P39" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="C40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="D40" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="E40" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F40" t="n">
         <v>53.94298182036444</v>
@@ -7356,28 +7356,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U40" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V40" t="n">
-        <v>348.7460229006679</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W40" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X40" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="Y40" t="n">
-        <v>348.7460229006679</v>
+        <v>184.0273259635867</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1056.889695563554</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C41" t="n">
-        <v>1056.889695563554</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D41" t="n">
-        <v>1056.889695563554</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E41" t="n">
-        <v>1056.889695563554</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F41" t="n">
-        <v>645.9037907739462</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1377017843616</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I41" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J41" t="n">
         <v>169.7108380533141</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7435,28 +7435,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S41" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T41" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U41" t="n">
-        <v>2169.723949158869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V41" t="n">
-        <v>2169.723949158869</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W41" t="n">
-        <v>1816.955293888755</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X41" t="n">
-        <v>1443.489535627675</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y41" t="n">
-        <v>1443.489535627675</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I42" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J42" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K42" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L42" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M42" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N42" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O42" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P42" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q42" t="n">
         <v>2697.149091018222</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J43" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K43" t="n">
         <v>110.2451748866326</v>
@@ -7593,28 +7593,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R43" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V43" t="n">
-        <v>111.0094142528941</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W43" t="n">
-        <v>111.0094142528941</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y43" t="n">
-        <v>111.0094142528941</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1494.154169929768</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="C44" t="n">
-        <v>1125.191652989356</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="D44" t="n">
-        <v>766.9259543826058</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="E44" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="F44" t="n">
-        <v>381.1377017843616</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
         <v>463.9616490733126</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T44" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U44" t="n">
-        <v>2601.956229313272</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V44" t="n">
-        <v>2270.893341969701</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W44" t="n">
-        <v>2270.893341969701</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X44" t="n">
-        <v>2270.893341969701</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="Y44" t="n">
-        <v>1880.75400999389</v>
+        <v>952.5674858910851</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
         <v>713.8062203571349</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O45" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P45" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7754,16 +7754,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S45" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T45" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U45" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V45" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
         <v>1572.325111207638</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>53.94298182036444</v>
+        <v>318.4909684781771</v>
       </c>
       <c r="C46" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="D46" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="E46" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="F46" t="n">
-        <v>53.94298182036444</v>
+        <v>149.5547855502702</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7839,19 +7839,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V46" t="n">
-        <v>343.360151857325</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W46" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X46" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084169</v>
       </c>
       <c r="Y46" t="n">
-        <v>53.94298182036444</v>
+        <v>500.1394333084169</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>357.7767872515269</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8303,19 +8303,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>368.5691090902119</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>198.1125443848066</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>231.1529892133072</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8771,7 +8771,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>50.57316300554218</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848496</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>142.5410678841822</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>176.1159433919877</v>
+        <v>226.4285348520591</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.99581912509464</v>
+        <v>70.99581912509468</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>75.77844388033748</v>
+        <v>75.77844388033751</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032247004</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>387.3081405556758</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.99581912509464</v>
+        <v>70.99581912509468</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033748</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>197.9140804848496</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>226.4285348520595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.99581912509464</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>166.6588033951776</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714828</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.64146763747122</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10676,7 +10676,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
@@ -11147,7 +11147,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093292</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599044</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11384,7 +11384,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>422.2865794093287</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>415.302737515135</v>
+        <v>213.0080510862378</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -22603,19 +22603,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>146.9462822885158</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22649,7 +22649,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22682,7 +22682,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>175.8836868124218</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -22694,7 +22694,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>176.6302781386796</v>
       </c>
     </row>
     <row r="4">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>342.2575625303454</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,13 +22792,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>362.8771690273874</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22877,7 +22877,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -22910,7 +22910,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22922,13 +22922,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>35.77382341366379</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>118.8815043816733</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -23026,10 +23026,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>165.8617568640524</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23071,16 +23071,16 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>6.725383157348119</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>119.4884220823224</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23089,7 +23089,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23108,22 +23108,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23150,16 +23150,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>170.275430303766</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>10.68069428326055</v>
@@ -23168,7 +23168,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>91.02253666374787</v>
       </c>
     </row>
     <row r="10">
@@ -23199,7 +23199,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23263,7 +23263,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>329.1304393464753</v>
+        <v>189.6196351431434</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379247</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T11" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
-        <v>15.02664030110586</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23336,28 +23336,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207136</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>65.0531403283307</v>
       </c>
       <c r="U12" t="n">
-        <v>67.34077980682036</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23424,22 +23424,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>111.5349975054791</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385095</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23475,10 +23475,10 @@
         <v>286.2943157982424</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>58.31669950388823</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23494,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>103.6437622096821</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>255.6459282563654</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
         <v>171.5352284535379</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.42041023393324</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145.8897551325921</v>
+        <v>79.28624954052114</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23594,7 +23594,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>70.7895772424515</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23658,13 +23658,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.537897457236</v>
@@ -23673,10 +23673,10 @@
         <v>158.1988625129318</v>
       </c>
       <c r="I16" t="n">
-        <v>101.9516080107596</v>
+        <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385095</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23706,13 +23706,13 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T16" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>284.0977109976875</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23734,25 +23734,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>179.270929533867</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>210.1097671041995</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,25 +23779,25 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.42041023393325</v>
+        <v>86.4204102339333</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23816,7 +23816,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23825,13 +23825,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>22.28154135581239</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>70.7895772424515</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207134</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23876,7 +23876,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>72.31688022622677</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -23913,7 +23913,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385095</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23943,16 +23943,16 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T19" t="n">
-        <v>226.0096940321479</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>92.47337197830251</v>
+        <v>31.96006767385956</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>260.5131409563421</v>
+        <v>319.6542293950946</v>
       </c>
       <c r="G20" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379247</v>
+        <v>186.0031364379248</v>
       </c>
       <c r="T20" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.2648474376504</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24059,16 +24059,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H21" t="n">
         <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>70.7895772424515</v>
+        <v>70.78957724245151</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>66.60350559207137</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24110,13 +24110,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>222.0793546852775</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>79.28624954052114</v>
       </c>
     </row>
     <row r="22">
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H22" t="n">
         <v>158.1988625129318</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022414</v>
+        <v>61.32628970022416</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385095</v>
+        <v>48.22261241385097</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
@@ -24180,16 +24180,16 @@
         <v>216.1206161765721</v>
       </c>
       <c r="T22" t="n">
-        <v>58.62469735578432</v>
+        <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830262</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>314.5901756554925</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>41.70230979040105</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24366,28 +24366,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H25" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I25" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,25 +24408,25 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S25" t="n">
-        <v>174.3074556102701</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T25" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24448,19 +24448,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>85.84127361338227</v>
+        <v>91.92565884761393</v>
       </c>
       <c r="H26" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S26" t="n">
         <v>174.4157128089715</v>
@@ -24502,13 +24502,13 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24600,31 +24600,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I28" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24645,7 +24645,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
         <v>146.6651919801579</v>
@@ -24654,7 +24654,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T28" t="n">
-        <v>225.0351054580843</v>
+        <v>130.4424009259006</v>
       </c>
       <c r="U28" t="n">
         <v>286.2818742419777</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>226.7961607607226</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,19 +24682,19 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>133.5555860832511</v>
       </c>
       <c r="H29" t="n">
         <v>323.9227727643571</v>
@@ -24733,19 +24733,19 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>73.76038744430525</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24891,22 +24891,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>96.25160475629423</v>
       </c>
       <c r="X31" t="n">
-        <v>102.1031945837915</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24922,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
-        <v>115.8225608688523</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24976,7 +24976,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>268.7199975546849</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24985,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,10 +25095,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I34" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J34" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -25119,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
         <v>146.6651919801579</v>
@@ -25128,22 +25128,22 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>174.7472224183672</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>123.9453835684545</v>
       </c>
     </row>
     <row r="35">
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25165,10 +25165,10 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>254.0476267345293</v>
       </c>
       <c r="H35" t="n">
         <v>323.9227727643571</v>
@@ -25201,10 +25201,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>50.3356819120838</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -25216,13 +25216,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25317,25 +25317,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I37" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J37" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,16 +25356,16 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R37" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S37" t="n">
-        <v>141.3427691173179</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T37" t="n">
-        <v>225.0351054580843</v>
+        <v>1.885271837007195</v>
       </c>
       <c r="U37" t="n">
         <v>286.2818742419777</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,25 +25393,25 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>58.23741346252945</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>356.2946932808349</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>51.04847948014719</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,10 +25557,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>167.3098022590509</v>
@@ -25569,10 +25569,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,10 +25593,10 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
         <v>212.1455389500189</v>
@@ -25608,10 +25608,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V40" t="n">
-        <v>23.21370361127723</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>0.6023364382306795</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>151.6657419211062</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
         <v>151.9313162448613</v>
@@ -25675,16 +25675,16 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25803,13 +25803,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>99.67512073359083</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,13 +25830,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T43" t="n">
         <v>225.0351054580843</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>156.983234420389</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>16.1551420398813</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25994,7 +25994,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>9.947598300641403e-13</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,16 +26037,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>167.3098022590509</v>
+        <v>72.6541165664442</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,7 +26067,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
         <v>146.6651919801579</v>
@@ -26079,16 +26079,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V46" t="n">
-        <v>157.4983735401877</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>465607.1527581618</v>
+        <v>465607.1527581617</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>465607.1527581618</v>
+        <v>465607.1527581619</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671688.8752943734</v>
+        <v>671688.8752943728</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671688.875294373</v>
+        <v>671688.8752943729</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671688.8752943731</v>
+        <v>671688.8752943728</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671688.8752943731</v>
+        <v>671688.8752943729</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>776028.9822512048</v>
+        <v>776028.9822512047</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>776028.9822512048</v>
+        <v>776028.9822512049</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>776028.9822512049</v>
+        <v>776028.9822512048</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>776028.9822512047</v>
+        <v>776028.9822512046</v>
       </c>
     </row>
     <row r="15">
@@ -26322,25 +26322,25 @@
         <v>166160.6725313324</v>
       </c>
       <c r="E2" t="n">
+        <v>247828.6760862711</v>
+      </c>
+      <c r="F2" t="n">
+        <v>247828.6760862711</v>
+      </c>
+      <c r="G2" t="n">
+        <v>247828.6760862711</v>
+      </c>
+      <c r="H2" t="n">
         <v>247828.6760862712</v>
       </c>
-      <c r="F2" t="n">
-        <v>247828.6760862712</v>
-      </c>
-      <c r="G2" t="n">
-        <v>247828.6760862712</v>
-      </c>
-      <c r="H2" t="n">
-        <v>247828.6760862711</v>
-      </c>
       <c r="I2" t="n">
-        <v>289152.6100157574</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="J2" t="n">
         <v>289152.6100157574</v>
       </c>
       <c r="K2" t="n">
-        <v>289152.6100157575</v>
+        <v>289152.6100157573</v>
       </c>
       <c r="L2" t="n">
         <v>289152.6100157574</v>
@@ -26349,7 +26349,7 @@
         <v>289152.6100157574</v>
       </c>
       <c r="N2" t="n">
-        <v>289152.6100157573</v>
+        <v>289152.6100157576</v>
       </c>
       <c r="O2" t="n">
         <v>289152.6100157574</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134258</v>
+        <v>287351.7100134256</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116918</v>
+        <v>134288.7015116921</v>
       </c>
       <c r="J3" t="n">
         <v>63059.94259910626</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871089</v>
+        <v>71355.62051871084</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,7 +26423,7 @@
         <v>50385.00392753457</v>
       </c>
       <c r="D4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="E4" t="n">
         <v>52516.94845541666</v>
@@ -26478,16 +26478,16 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>37540.1345973064</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="F5" t="n">
         <v>37540.13459730639</v>
       </c>
       <c r="G5" t="n">
-        <v>37540.1345973064</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="H5" t="n">
-        <v>37540.1345973064</v>
+        <v>37540.13459730639</v>
       </c>
       <c r="I5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25493.04231155203</v>
+        <v>-14496.83275351561</v>
       </c>
       <c r="C6" t="n">
-        <v>55276.38921999571</v>
+        <v>66272.59877803207</v>
       </c>
       <c r="D6" t="n">
-        <v>55276.38921999565</v>
+        <v>66272.59877803213</v>
       </c>
       <c r="E6" t="n">
-        <v>-137714.7274221711</v>
+        <v>-130393.5780241069</v>
       </c>
       <c r="F6" t="n">
-        <v>149636.9825912546</v>
+        <v>156958.1319893187</v>
       </c>
       <c r="G6" t="n">
-        <v>149636.9825912546</v>
+        <v>156958.1319893187</v>
       </c>
       <c r="H6" t="n">
-        <v>149636.9825912545</v>
+        <v>156958.1319893188</v>
       </c>
       <c r="I6" t="n">
-        <v>45903.4509839665</v>
+        <v>51365.02335520349</v>
       </c>
       <c r="J6" t="n">
-        <v>117132.2098965521</v>
+        <v>122593.7822677894</v>
       </c>
       <c r="K6" t="n">
-        <v>180192.1524956585</v>
+        <v>185653.7248668956</v>
       </c>
       <c r="L6" t="n">
-        <v>180192.1524956583</v>
+        <v>185653.7248668956</v>
       </c>
       <c r="M6" t="n">
-        <v>108836.5319769475</v>
+        <v>114298.1043481848</v>
       </c>
       <c r="N6" t="n">
-        <v>180192.1524956583</v>
+        <v>185653.7248668959</v>
       </c>
       <c r="O6" t="n">
-        <v>180192.1524956584</v>
+        <v>185653.7248668957</v>
       </c>
       <c r="P6" t="n">
-        <v>180192.1524956585</v>
+        <v>185653.7248668958</v>
       </c>
     </row>
   </sheetData>
@@ -26746,16 +26746,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="I3" t="n">
         <v>377.7436642170866</v>
@@ -26798,16 +26798,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500131</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="F4" t="n">
-        <v>527.348458950013</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500131</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500131</v>
+        <v>527.3484589500129</v>
       </c>
       <c r="I4" t="n">
         <v>674.2872727545555</v>
@@ -26828,10 +26828,10 @@
         <v>674.2872727545555</v>
       </c>
       <c r="O4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598903</v>
+        <v>251.2545088598902</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571963</v>
+        <v>126.4891553571965</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.334170072354</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045424</v>
+        <v>146.9388138045426</v>
       </c>
       <c r="J4" t="n">
         <v>241.0142888776592</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723539</v>
+        <v>286.3341700723537</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.334170072354</v>
+        <v>286.3341700723538</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31758,43 +31758,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I11" t="n">
-        <v>38.94066111686803</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008891</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K11" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L11" t="n">
-        <v>159.3963654549031</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O11" t="n">
         <v>170.1851583102184</v>
       </c>
       <c r="P11" t="n">
-        <v>145.2490952449781</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q11" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721642</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832061</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609528</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,40 +31831,40 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5404342266042923</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I12" t="n">
         <v>18.60705560896357</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632922</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881681</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L12" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P12" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092686</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S12" t="n">
         <v>10.03832872661919</v>
@@ -31873,7 +31873,7 @@
         <v>2.178329185304142</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922977</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507752</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I13" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933437</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985389</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N13" t="n">
-        <v>69.3338876662055</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464877</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970457</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.93943083784343</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400155</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T13" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851382</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.010068377326192</v>
+        <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
         <v>10.34436276929186</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686804</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008893</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K14" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L14" t="n">
-        <v>159.3963654549031</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601778</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102185</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P14" t="n">
-        <v>145.2490952449781</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q14" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721644</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832061</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745406</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609531</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5404342266042924</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H15" t="n">
-        <v>5.21945687273093</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896358</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J15" t="n">
-        <v>51.05918278632923</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881682</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L15" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P15" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092688</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S15" t="n">
-        <v>10.0383287266192</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304143</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922978</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.453081901222753</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507753</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I16" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644864</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933438</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269913</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M16" t="n">
-        <v>71.0226474798539</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620551</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464878</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970458</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784344</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S16" t="n">
-        <v>7.895981860400156</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133581</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851383</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32232,43 +32232,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686804</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008891</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K17" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.3963654549031</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102185</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P17" t="n">
-        <v>145.2490952449781</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q17" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721643</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832061</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0808054701860953</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5404342266042924</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896358</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J18" t="n">
-        <v>51.05918278632922</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881681</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L18" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P18" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092688</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S18" t="n">
-        <v>10.0383287266192</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T18" t="n">
         <v>2.178329185304142</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922978</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507752</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I19" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933438</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985389</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620551</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464878</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970457</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784344</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S19" t="n">
-        <v>7.895981860400155</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T19" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851383</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,43 +32469,43 @@
         <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686804</v>
+        <v>38.94066111686801</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008891</v>
+        <v>85.72829094008887</v>
       </c>
       <c r="K20" t="n">
         <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.3963654549031</v>
+        <v>159.396365454903</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601777</v>
+        <v>177.3591689601776</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372558</v>
+        <v>180.2290257372557</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102185</v>
+        <v>170.1851583102184</v>
       </c>
       <c r="P20" t="n">
-        <v>145.2490952449781</v>
+        <v>145.249095244978</v>
       </c>
       <c r="Q20" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721643</v>
+        <v>63.44870770721639</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832061</v>
+        <v>23.0169331483206</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745405</v>
+        <v>4.421574321745402</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0808054701860953</v>
+        <v>0.08080547018609525</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5404342266042924</v>
+        <v>0.5404342266042921</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730929</v>
+        <v>5.219456872730927</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896358</v>
+        <v>18.60705560896357</v>
       </c>
       <c r="J21" t="n">
-        <v>51.05918278632922</v>
+        <v>51.0591827863292</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881681</v>
+        <v>87.26827596881677</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286402</v>
+        <v>136.9337073286401</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026664</v>
+        <v>140.5579351026663</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973818</v>
+        <v>128.5830503973817</v>
       </c>
       <c r="P21" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092688</v>
+        <v>68.98595496092683</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057178</v>
+        <v>33.55432856057176</v>
       </c>
       <c r="S21" t="n">
-        <v>10.0383287266192</v>
+        <v>10.03832872661919</v>
       </c>
       <c r="T21" t="n">
         <v>2.178329185304142</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922978</v>
+        <v>0.03555488332922976</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227529</v>
+        <v>0.4530819012227527</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507752</v>
+        <v>4.02830999450775</v>
       </c>
       <c r="I22" t="n">
-        <v>13.62540844768061</v>
+        <v>13.6254084476806</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644863</v>
+        <v>32.03289041644862</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933438</v>
+        <v>52.63987906933435</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269911</v>
+        <v>67.36092193269909</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985389</v>
+        <v>71.02264747985386</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620551</v>
+        <v>69.33388766620547</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464878</v>
+        <v>64.04106727464874</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970457</v>
+        <v>54.79819648970454</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784344</v>
+        <v>37.93943083784341</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952487</v>
+        <v>20.37220984952486</v>
       </c>
       <c r="S22" t="n">
-        <v>7.895981860400155</v>
+        <v>7.895981860400151</v>
       </c>
       <c r="T22" t="n">
-        <v>1.93589539613358</v>
+        <v>1.935895396133579</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851383</v>
+        <v>0.02471355824851381</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,13 +32700,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H23" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
@@ -32724,22 +32724,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O23" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P23" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q23" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S23" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I24" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32812,16 +32812,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S24" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I25" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K25" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L25" t="n">
         <v>101.2724571246924</v>
@@ -32882,13 +32882,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P25" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R25" t="n">
         <v>30.62819939701163</v>
@@ -32897,7 +32897,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T25" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U25" t="n">
         <v>0.0371551145131561</v>
@@ -32937,13 +32937,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H26" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
@@ -32961,22 +32961,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O26" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P26" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q26" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S26" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I27" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33049,16 +33049,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S27" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I28" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K28" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L28" t="n">
         <v>101.2724571246924</v>
@@ -33119,13 +33119,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P28" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R28" t="n">
         <v>30.62819939701163</v>
@@ -33134,7 +33134,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T28" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U28" t="n">
         <v>0.0371551145131561</v>
@@ -33411,13 +33411,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H32" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I32" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J32" t="n">
         <v>128.8865178727436</v>
@@ -33435,22 +33435,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O32" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P32" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q32" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R32" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S32" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T32" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U32" t="n">
         <v>0.1214853995472036</v>
@@ -33490,16 +33490,16 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H33" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I33" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J33" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K33" t="n">
         <v>131.2017781649102</v>
@@ -33523,16 +33523,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R33" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S33" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T33" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H34" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I34" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J34" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K34" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L34" t="n">
         <v>101.2724571246924</v>
@@ -33593,13 +33593,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O34" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P34" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R34" t="n">
         <v>30.62819939701163</v>
@@ -33608,7 +33608,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T34" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U34" t="n">
         <v>0.0371551145131561</v>
@@ -33648,13 +33648,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H35" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I35" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J35" t="n">
         <v>128.8865178727436</v>
@@ -33672,22 +33672,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O35" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P35" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q35" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R35" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S35" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T35" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U35" t="n">
         <v>0.1214853995472036</v>
@@ -33727,16 +33727,16 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H36" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I36" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J36" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K36" t="n">
         <v>131.2017781649102</v>
@@ -33760,16 +33760,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R36" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S36" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T36" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H37" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I37" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J37" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K37" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L37" t="n">
         <v>101.2724571246924</v>
@@ -33830,13 +33830,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O37" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P37" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R37" t="n">
         <v>30.62819939701163</v>
@@ -33845,7 +33845,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T37" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U37" t="n">
         <v>0.0371551145131561</v>
@@ -33885,13 +33885,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H38" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I38" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J38" t="n">
         <v>128.8865178727436</v>
@@ -33909,22 +33909,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O38" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P38" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q38" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R38" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S38" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T38" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U38" t="n">
         <v>0.1214853995472036</v>
@@ -33964,16 +33964,16 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H39" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I39" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J39" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K39" t="n">
         <v>131.2017781649102</v>
@@ -33997,16 +33997,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R39" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S39" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T39" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H40" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I40" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J40" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K40" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L40" t="n">
         <v>101.2724571246924</v>
@@ -34067,13 +34067,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O40" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P40" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R40" t="n">
         <v>30.62819939701163</v>
@@ -34082,7 +34082,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T40" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U40" t="n">
         <v>0.0371551145131561</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>226.4350751681936</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -35023,19 +35023,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
+        <v>99.81127712997396</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N9" t="n">
-        <v>99.8112771299739</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K11" t="n">
         <v>232.5400468784908</v>
@@ -35418,19 +35418,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N11" t="n">
         <v>388.162886552649</v>
       </c>
       <c r="O11" t="n">
-        <v>320.8871281512771</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611912</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743901</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>50.31259146007137</v>
+        <v>50.31259146007134</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L12" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628866</v>
+        <v>207.1303035041826</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296669</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P12" t="n">
         <v>287.6875952514739</v>
       </c>
       <c r="Q12" t="n">
-        <v>71.54524875908754</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345152</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N13" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O13" t="n">
-        <v>88.62619518868844</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459805</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547641</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K14" t="n">
         <v>232.5400468784908</v>
       </c>
       <c r="L14" t="n">
-        <v>341.2911650353663</v>
+        <v>341.2911650353662</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N14" t="n">
-        <v>388.1628865526491</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O14" t="n">
-        <v>320.8871281512771</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611912</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743904</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>50.31259146007137</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>213.8920740070364</v>
@@ -35734,16 +35734,16 @@
         <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628866</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296669</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P15" t="n">
-        <v>145.3407700035245</v>
+        <v>195.6533614635958</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345153</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301527</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N16" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868846</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459807</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K17" t="n">
         <v>232.5400468784908</v>
@@ -35892,19 +35892,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N17" t="n">
-        <v>388.1628865526491</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O17" t="n">
-        <v>320.8871281512771</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611912</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743903</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>213.8920740070364</v>
+        <v>121.8578402191582</v>
       </c>
       <c r="L18" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N18" t="n">
-        <v>396.5243635750089</v>
+        <v>488.5585973628865</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296669</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P18" t="n">
-        <v>287.687595251474</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345152</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N19" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868846</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459806</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547639</v>
+        <v>73.77900158547635</v>
       </c>
       <c r="K20" t="n">
         <v>232.5400468784908</v>
@@ -36129,19 +36129,19 @@
         <v>341.2911650353662</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257375</v>
+        <v>396.5264692257374</v>
       </c>
       <c r="N20" t="n">
-        <v>388.1628865526491</v>
+        <v>388.162886552649</v>
       </c>
       <c r="O20" t="n">
-        <v>320.8871281512771</v>
+        <v>320.887128151277</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611912</v>
+        <v>235.8148076611911</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743903</v>
+        <v>99.08532226743897</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>50.31259146007134</v>
       </c>
       <c r="K21" t="n">
         <v>213.8920740070364</v>
@@ -36208,19 +36208,19 @@
         <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566218</v>
+        <v>460.5047371566217</v>
       </c>
       <c r="N21" t="n">
-        <v>488.5585973628866</v>
+        <v>207.1303035041826</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296669</v>
+        <v>379.8491252296668</v>
       </c>
       <c r="P21" t="n">
-        <v>195.6533614635963</v>
+        <v>287.6875952514739</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.0814686107544</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345152</v>
+        <v>30.3703872434515</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301525</v>
+        <v>94.95094719301522</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416945</v>
+        <v>110.6065244416944</v>
       </c>
       <c r="N22" t="n">
         <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868846</v>
+        <v>88.62619518868841</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459806</v>
+        <v>52.07675575459803</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,10 +36372,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O23" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P23" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q23" t="n">
         <v>153.9975062898689</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36451,13 +36451,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O24" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.3926104730626</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L25" t="n">
         <v>128.8624823850085</v>
@@ -36533,7 +36533,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P25" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36609,7 +36609,7 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O26" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P26" t="n">
         <v>308.9376163116798</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K27" t="n">
         <v>257.8255762031298</v>
@@ -36688,7 +36688,7 @@
         <v>439.8839133355123</v>
       </c>
       <c r="O27" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
         <v>339.6412258735646</v>
@@ -36755,7 +36755,7 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L28" t="n">
         <v>128.8624823850085</v>
@@ -36770,7 +36770,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P28" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K30" t="n">
         <v>257.8255762031298</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37083,10 +37083,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O32" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P32" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q32" t="n">
         <v>153.9975062898689</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>257.8255762031298</v>
@@ -37162,13 +37162,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O33" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P33" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q33" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37229,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L34" t="n">
         <v>128.8624823850085</v>
@@ -37244,7 +37244,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P34" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37320,10 +37320,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O35" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P35" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q35" t="n">
         <v>153.9975062898689</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37396,16 +37396,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N36" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O36" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P36" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L37" t="n">
         <v>128.8624823850085</v>
@@ -37481,7 +37481,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P37" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37557,10 +37557,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O38" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P38" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q38" t="n">
         <v>153.9975062898689</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K39" t="n">
         <v>257.8255762031298</v>
@@ -37633,16 +37633,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355119</v>
       </c>
       <c r="O39" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P39" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L40" t="n">
         <v>128.8624823850085</v>
@@ -37718,7 +37718,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P40" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37867,19 +37867,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M42" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856231</v>
       </c>
       <c r="N42" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q42" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38031,13 +38031,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
-        <v>153.9975062898686</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38104,19 +38104,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M45" t="n">
-        <v>486.0228424856226</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
